--- a/frontend-cemos/public/assets/content/intendencia/33-ema-305/script/fc_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/intendencia/33-ema-305/script/fc_consolidado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3577,6 +3577,2598 @@
       </c>
       <c r="H92" t="inlineStr"/>
     </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Como o Capítulo 5 conceitua o emprego do Poder Naval em atividades benignas?</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>É o emprego organizado e autossustentável, com capacidades e conhecimentos especializados, sem o uso da violência ou a necessidade do potencial de força como pré-requisito.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.1, da página 59, o Poder Naval pode contribuir com atividades benignas por meio de emprego organizado e autossustentável.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Em que tipo de ambiente as atividades benignas do Poder Naval são normalmente desempenhadas no exterior?</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Normalmente, são desempenhadas em ambiente permissivo.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.1, da página 59, as atividades benignas, quando desempenhadas no exterior, ocorrem normalmente em ambiente permissivo.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>De acordo com o texto, o que antecede o uso da força militar para a solução de contenciosos na política exterior do Brasil?</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>As relações diplomáticas antecedem o uso da força militar.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 59, as relações diplomáticas antecedem o uso da força militar para a solução de contenciosos.</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Qual princípio estabelecido no artigo 4º da CRFB orienta a solução de contenciosos na política externa brasileira?</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>O princípio da solução pacífica das controvérsias.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 59, a política externa visa a consecução dos objetivos nacionais por intermédio da observância dos princípios estabelecidos no artigo 4º da CRFB, sobretudo a solução pacífica das controvérsias.</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>O que é 'diplomacia naval' no contexto do Poder Naval brasileiro?</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>É o emprego do Poder Naval como um instrumento da política externa do Estado para influenciar, reforçar laços de amizade, garantir acordos e demonstrar intenções.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 59, o apoio à política externa é conhecido por “diplomacia naval”, onde o Poder Naval constitui um eficaz instrumento da política externa do Estado.</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Qual documento de defesa nacional estabelece o apoio à política externa como uma atribuição do Poder Naval?</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>A Estratégia Nacional de Defesa (END).</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 59, o emprego do Poder Naval para o apoio à política externa é uma atribuição contida na Estratégia Nacional de Defesa (END).</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Qual é a função dos meios navais quando atuam como 'embaixadores' do Brasil em portos estrangeiros?</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>A função é 'mostrar bandeira', sob critérios político-estratégicos, como parte da diplomacia naval.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Pág. 60</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 60, os meios navais mostram bandeira e atuam como “embaixadores” do Brasil em portos estrangeiros selecionados.</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>O que é a Diplomacia Preventiva, uma das formas de emprego do Poder Naval?</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>É um tipo de Operação de Paz para prevenir o surgimento de disputas, evitar que degenerem em conflitos armados e impedir que se alastrem.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Pág. 60</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.2, da página 60, a Diplomacia Preventiva é um tipo de OpPaz que compreende as atividades destinadas a prevenir o surgimento de disputas entre as partes.</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>A Diplomacia Preventiva constitui-se em uma ação consentida, sem o uso da _____.</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>força</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Pág. 60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.2, da página 60, a Diplomacia Preventiva diferencia-se do emprego preventivo de tropas por se constituir em ação consentida, sem uso da força.</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Cite duas formas de emprego do Poder Naval em tempo de paz que contribuem com a política externa, além das Operações de Paz.</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Realizar operações com ação de presença no exterior e receber visita de navios de guerra de Marinhas amigas.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Pág. 60</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 60, as formas de emprego incluem realizar operações no exterior e receber visita de navios de guerra de Marinhas amigas.</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>O que é uma 'operação humanitária' segundo o documento?</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>É uma operação em outros países para reduzir os efeitos de desastres ou acidentes que ameaçam a vida ou causam grandes danos, e para prestar assistência cívico-social.</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Pág. 60</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.3, da página 60, a operação humanitária é aquela realizada em outros países para reduzir os efeitos de desastres naturais ou acidentes provocados pelo homem.</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Qual é a expressão em doutrinas militares estrangeiras para 'operação humanitária'?</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>É conhecida como 'humanitarian assistance and disaster relief operations'.</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Pág. 60</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Nos termos da nota 1 do item 5.3, da página 60, essa operação é conhecida pela expressão “humanitarian assistance and disaster relief operations”.</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>O que representa a Ação Cívico-Social (ACISO)?</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>É um conjunto de atividades de assistência e auxílio às comunidades, desenvolvidas pelas organizações militares para resolver problemas imediatos e prementes.</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4, da página 61, a Ação Cívico-Social (ACISO) representa um conjunto de atividades de assistência e auxílio às comunidades desenvolvidas pelas FA.</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>O que são as operações de assistência hospitalar conhecidas como ASSHOP?</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>São operações de assistência hospitalar à população ribeirinha, realizadas rotineiramente pela MB com os Navios de Assistência Hospitalar.</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4, da página 61, as operações de assistência hospitalar à população ribeirinha são conhecidas como ASSHOP.</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Além do caráter assistencial, em que outras áreas a ACISO se insere?</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Insere-se como assunto civil e colabora nas operações psicológicas.</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4, da página 61, além da natureza assistencial, a ACISO também se insere como assunto civil e colabora nas operações psicológicas.</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Cite dois benefícios operativos que as ASSHOP proporcionam à força naval nos cenários amazônico e do Pantanal.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Atualizar dados de inteligência operacional e intensificar o bom relacionamento com a população.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4, da página 61, as ASSHOP possibilitam atualizar dados de inteligência operacional e intensificar o bom relacionamento com a população.</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Qual lei disciplina a 'operação de socorro' como competência da Marinha?</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>A Lei nº 7.273, de 10 de dezembro de 1984.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 61, a operação de socorro é uma atividade disciplinada pela Lei nº 7.273, de 10 de dezembro de 1984.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Qual é a finalidade principal da 'operação de socorro'?</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Prover serviços de busca e salvamento de vida humana em perigo no mar, nos portos e nas vias navegáveis interiores.</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 61, compete à Marinha adotar providências para prover serviços de busca e salvamento de vida humana em perigo no mar.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Qual convenção internacional torna o Brasil responsável por uma grande área marítima de socorro no Atlântico?</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>A Convenção Internacional sobre Busca e Salvamento Marítimo (Convenção SAR).</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 61, o Brasil é signatário da Convenção SAR, tornando-se responsável por uma grande área marítima de socorro no Atlântico.</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>A atividade de socorro, conhecida pela sigla SAR ('Search and Rescue'), refere-se a vida humana ou a material?</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Refere-se exclusivamente à salvaguarda da vida humana, não a material.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.5, da página 61, as atividades SAR não devem ser consideradas como pertencentes à função logística salvamento, a qual se refere exclusivamente a material.</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Quem é o responsável direto pelas operações de busca a submarinos e socorro às suas tripulações (SARSUB)?</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>O Comandante de Operações Navais.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Pág. 62</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 62, o Comandante de Operações Navais é o responsável direto pelas operações SARSUB.</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Qual órgão, estruturado pelo Comando de Operações Navais, coordena as atividades de busca e salvamento marítimo no Brasil?</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>O SALVAMAR BRASIL ou 'Maritime Rescue Coordination Centre' (MRCC BRAZIL).</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Pág. 62</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 62, o Serviço de Busca e Salvamento sob responsabilidade da MB (SALVAMAR BRASIL) coordena as atividades de busca e salvamento marítimo.</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Quem coordena os incidentes SAR envolvendo aeronaves sobre o mar?</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>O SALVAERO (Centro de Coordenação SAR Aeronáutico), com o apoio do SALVAMAR se necessário.</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Pág. 62</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.5, da página 62, os incidentes SAR envolvendo aeronaves sobre o mar serão coordenados pelo SALVAERO.</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Qual lei disciplina a 'operação de salvamento' como competência da Marinha?</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>A Lei nº 7.203, de 3 de julho de 1984.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.6, da página 63, a operação de salvamento é uma atividade disciplinada pela Lei nº 7.203, de 3 de julho de 1984.</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Qual é a principal diferença entre a 'operação de socorro' e a 'operação de salvamento'?</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>A operação de socorro visa salvar vidas humanas (SAR), enquanto a operação de salvamento visa salvar embarcações, coisas ou bens (material).</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Pág. 61 e 63</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Nos termos dos itens 5.5 e 5.6, das páginas 61 e 63, o socorro refere-se a vida humana (SAR) e o salvamento a embarcação, coisa ou bem em perigo.</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Cite três atividades envolvidas no salvamento de material.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Controle de avarias, combate a incêndios e reboque.</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.6, da página 63, o salvamento de material envolve controle de avarias, combate a incêndios, reboque, entre outros.</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>A operação de salvamento é um encargo compulsório para a MB?</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Não, salvo quando se tratar de seus próprios meios ou para prevenir danos a terceiros ou ao meio ambiente.</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.6, da página 63, essa operação não é um encargo compulsório para a MB, salvo em meios próprios ou para evitar danos a terceiros.</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Quem é o responsável direto pelo salvamento de submarinos?</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>O Comandante de Operações Navais.</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.6, da página 63, o Comandante de Operações Navais é o responsável direto pelo salvamento de submarinos.</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Qual é o propósito da desativação de artefatos explosivos?</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>É uma ação preventiva para impedir que artefatos explosivos sejam acionados, causando destruição ou baixas.</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.7, da página 63, a desativação de artefatos explosivos é uma ação preventiva para impedir que esses venham a ser acionados.</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Quais unidades da MB possuem militares especializados em desativar artefatos explosivos?</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>O Grupamento de Mergulhadores de Combate (GRUMEC) no meio aquático e o Batalhão de Engenharia de Fuzileiros Navais (BtlEngFuzNav) em terra.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.7, da página 63, esses militares compõem o GDAE, do GRUMEC, ou do BtlEngFuzNav.</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>De acordo com a Lei Complementar nº 97/1999, qual é a atribuição subsidiária geral das FA em relação ao desenvolvimento nacional?</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Cooperar com o desenvolvimento nacional, na forma determinada pelo Presidente da República.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Pág. 64</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.8, da página 64, cabe às FA, como atribuição subsidiária geral, cooperar com o desenvolvimento nacional.</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Como a MB coopera com o desenvolvimento nacional por meio da construção naval?</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Implementando projetos e incentivando a construção de meios navais em estaleiros nacionais, fortalecendo a infraestrutura do setor.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Pág. 64</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.8, da página 64, a MB coopera incentivando a construção de meios navais em estaleiros nacionais.</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Qual diretoria da Marinha executa tarefas que contribuem para a navegação segura, como cartografia e sinalização náutica?</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>A Diretoria de Hidrografia e Navegação (DHN).</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Pág. 64</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.8, da página 64, a MB coopera executando tarefas relacionadas à Diretoria de Hidrografia e Navegação (DHN).</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Qual é a atribuição subsidiária geral das FA em relação à defesa civil?</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Cooperar com a defesa civil, na forma determinada pelo Presidente da República.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Pág. 65</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.9, da página 65, cabe às FA, como atribuição subsidiária geral, cooperar com a defesa civil.</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Como a capacidade da MB de emitir previsões meteorológicas contribui para a defesa civil?</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Contribui preventivamente na assistência às calamidades públicas.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Pág. 65</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.9, da página 65, a emissão de previsões meteorológicas faz da MB capaz de contribuir preventivamente na assistência às calamidades.</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Qual é a atribuição subsidiária particular da Marinha em relação à Marinha Mercante?</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Orientar e controlar a Marinha Mercante e suas atividades correlatas, no que interessa à defesa nacional.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.11, da página 66, cabe à Marinha, como atribuição subsidiária particular, orientar e controlar a Marinha Mercante.</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>O que é o Ensino Profissional Marítimo (EPM)?</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>É o ensino destinado ao preparo técnico-profissional do pessoal da Marinha Mercante e atividades correlatas.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.11, da página 66, o Ensino Profissional Marítimo (EPM) é destinado ao preparo técnico-profissional do pessoal da Marinha Mercante.</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Qual órgão da MB atua como órgão central do Sistema de Ensino Profissional Marítimo?</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>A Diretoria de Portos e Costas (DPC).</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.11, da página 66, cabe à Diretoria de Portos e Costas (DPC) atuar como órgão central do Sistema de Ensino Profissional Marítimo.</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Qual é a atribuição subsidiária particular da Marinha referente à segurança da navegação?</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Prover a segurança da navegação aquaviária.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.12, da página 66, cabe à Marinha, como atribuição subsidiária particular, prover a segurança da navegação aquaviária.</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Qual lei é conhecida como Lei de Segurança do Tráfego Aquaviário (LESTA)?</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>A Lei nº 9.537, de 11 de dezembro de 1997.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.12, da página 66, a segurança da navegação em AJB é regida pela Lei nº 9.537, conhecida por LESTA.</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Quem é a Autoridade Marítima (AM) responsável por implementar e executar a LESTA?</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>A Marinha do Brasil.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.12, da página 66, cabe à Autoridade Marítima (AM) promover a implementação e execução da LESTA.</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Qual atividade tem a finalidade de implementar e fiscalizar o cumprimento da LESTA e do RLESTA nas Águas Jurisdicionais Brasileiras (AJB)?</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A Patrulha Naval (PATNAV).</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.12, da página 66, a Patrulha Naval (PATNAV) tem a finalidade de implementar e fiscalizar o cumprimento da LESTA.</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>De acordo com a LESTA, qual é a responsabilidade da Autoridade Marítima sobre as zonas de praticagem?</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Regulamentar o serviço, estabelecer as zonas de praticagem obrigatória e especificar as embarcações dispensadas.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Pág. 67</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Nos termos do artigo 4º, inciso II da LESTA, citado no item 5.12 da página 67, cabe à AM regulamentar o serviço de praticagem.</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>O que é apurado por meio de um Inquérito Administrativo sobre Acidentes e Fatos da Navegação (IAFN)?</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Apuram-se os acidentes e fatos da navegação, para posterior julgamento no Tribunal Marítimo.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Pág. 68</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Nos termos do artigo 33 da LESTA, citado no item 5.12 da página 68, os acidentes e fatos da navegação serão apurados por meio de Inquérito.</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Qual lei, conhecida como Lei do Óleo, atribui responsabilidades à Autoridade Marítima na prevenção da poluição ambiental?</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>A Lei nº 9.966, de 28 de abril de 2000.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Pág. 68</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.12, da página 68, além da LESTA, a Lei nº 9.966, conhecida por Lei do Óleo, atribui responsabilidades à AM.</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Qual é a atribuição subsidiária particular da Marinha em relação às políticas nacionais sobre o mar?</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Contribuir para a formulação e condução de políticas nacionais que digam respeito ao mar.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Pág. 69</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.13, da página 69, cabe à Marinha contribuir para a formulação e condução de políticas nacionais que digam respeito ao mar.</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Qual é a sigla da Política Nacional para Assuntos Antárticos, que a Marinha ajuda a promover?</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>POLANTAR.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Pág. 69</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.13, da página 69, cabe à Marinha a promoção da Política Nacional para Assuntos Antárticos (POLANTAR).</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Qual programa visa o levantamento da plataforma continental brasileira e conta com a participação da MB?</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>O Programa de Levantamento da Plataforma Continental Brasileira (LEPLAC).</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Pág. 69</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.13, da página 69, a MB participa do Programa de Levantamento da Plataforma Continental Brasileira (LEPLAC).</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>O que é o PROANTAR?</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>É o Programa Antártico Brasileiro, no qual a Marinha participa e promove.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Pág. 69</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.13, da página 69, a MB participa do Programa Antártico Brasileiro (PROANTAR).</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Qual é o objetivo do Programa de Mentalidade Marítima (PROMAR)?</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Contribuir para a criação da mentalidade marítima na sociedade brasileira, enfatizando a importância do Poder Marítimo.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Pág. 69</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.13, da página 69, a MB coordena o Programa de Mentalidade Marítima (PROMAR).</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>O que é o SIPRON?</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>É o Sistema de Proteção ao Programa Nuclear Brasileiro.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Pág. 70</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.14, da página 70, o SIPRON é o Sistema de Proteção ao Programa Nuclear Brasileiro.</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Qual é uma das atribuições da MB como órgão de apoio ao SIPRON em relação à segurança nuclear?</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Proporcionar segurança ao transporte aquaviário de equipamento vital e material nuclear.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Pág. 70</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.14, da página 70, cabe à MB proporcionar segurança ao transporte aquaviário de material nuclear.</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Qual é a missão do Projeto Soldado Cidadão, um programa social conduzido pelo MD?</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Qualificar profissionalmente os recrutas que prestam o Serviço Militar, facilitando seu ingresso no mercado de trabalho.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Pág. 71</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.15, da página 71, o Projeto Soldado Cidadão tem como missão qualificar profissionalmente os recrutas.</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Qual programa social busca atender às carências de comunidades locais em estados como Acre, Amapá e Amazonas, aumentando a presença estatal?</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>O Programa Calha Norte.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Pág. 71</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.15, da página 71, o Programa Calha Norte busca atender às carências vividas pelas comunidades locais.</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Qual o objetivo geral do Programa Forças no Esporte?</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Promover a integração social por meio da prática esportiva em instalações militares.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Pág. 71</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.15, da página 71, o Programa Forças no Esporte tem como objetivo geral promover a integração social.</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>O relacionamento internacional de defesa pode contribuir para a estratégia de defesa, pois promove a _____ mútua, a cooperação e o estreitamento de laços de amizade.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>confiança</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 59, o relacionamento internacional promove a confiança mútua, a cooperação e o estreitamento de laços.</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Qual é uma das ações operativas que as ASSHOP possibilitam, relacionada à logística?</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Manter um elevado nível de capacitação na função logística saúde, principalmente no atendimento de patologias regionais.</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4, da página 61, as ASSHOP possibilitam manter nível elevado na função logística saúde.</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>A quem compete adotar as providências para prover serviços de busca e salvamento de vida humana em perigo no mar?</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Compete à Marinha do Brasil.</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 61, compete à Marinha adotar as providências para prover serviços de busca e salvamento.</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>O socorro da tripulação de submarino sinistrado (SARSUB) é uma operation _____ que exige pessoal e navio específicos.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>complexa</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Pág. 62</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 62, o socorro da tripulação de submarino sinistrado é uma operação complexa.</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>No caso de incidentes SAR com aeronaves da MB, quem deve ser acionado para assumir a coordenação da operação?</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>O SALVAERO regional deve ser acionado tempestivamente.</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Pág. 62</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.5, da página 62, no caso de incidentes envolvendo aeronaves da MB, o SALVAERO regional deve ser acionado.</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>A Autoridade Naval pode intervir em operações de salvamento para prevenir, controlar ou evitar danos à propriedade de terceiros ou ao _____.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>meio ambiente</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.6, da página 63, a autoridade naval poderá intervir para evitar danos à propriedade de terceiros ou ao meio ambiente.</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>A absorção de tecnologia pela MB pode gerar um 'arrasto tecnológico' para a sociedade civil por meio de qual tipo de aplicação?</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Por aplicação dual.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Pág. 64</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.8, da página 64, existe a possibilidade de arrasto tecnológico para a sociedade civil por aplicação dual.</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Quais são as duas atribuições subsidiárias particulares da Marinha, conforme o artigo 17 da Lei Complementar nº 97/1999?</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>1) Orientar e controlar a Marinha Mercante; e 2) Prover a segurança da navegação aquaviária.</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Pág. 66</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Nos termos dos incisos I e II do artigo 17 da LC 97/99, citados nos itens 5.11 e 5.12 da página 66, as atribuições são controle da Marinha Mercante e segurança da navegação.</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>O que são as NORMAM?</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>São as Normas da Autoridade Marítima, elaboradas para regulamentar diversos aspectos da segurança do tráfego aquaviário.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Pág. 67</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.12, da página 67, as atribuições da AM incluem elaborar normas (Normas da Autoridade Marítima — NORMAM).</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>A quem cabe determinar a tripulação de segurança das embarcações, segundo a LESTA?</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Cabe à Autoridade Marítima.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Pág. 67</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Nos termos do artigo 4º, inciso III da LESTA, citado no item 5.12 da página 67, cabe à AM determinar a tripulação de segurança.</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>A qual diretoria-geral da Marinha compete contribuir para o preparo e aplicação do Poder Naval no tocante à hidrografia, oceanografia e meteorologia?</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>À Diretoria-Geral de Navegação.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Pág. 68</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.12, da página 68, à Diretoria-Geral de Navegação compete contribuir nas atividades relacionadas à hidrografia, oceanografia e meteorologia.</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>O crescimento do Poder Marítimo cria condições favoráveis para o desenvolvimento do _____.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Poder Naval</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Pág. 69</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.13, da página 69, o crescimento do Poder Marítimo cria condições favoráveis para o desenvolvimento do Poder Naval.</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>No âmbito do SIPRON, a MB pode interditar ou restringir a _____ em determinadas áreas para a defesa de Unidades Operacionais.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>navegação</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Pág. 70</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.14, da página 70, cabe à MB interditar ou restringir a navegação em determinadas áreas para defesa de Unidades do SIPRON.</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>As atividades benignas do Poder Naval decorrem de quais fontes legais e documentais?</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Da Constituição (CRFB), Leis Complementares e Ordinárias, Decretos, documentos nacionais de defesa e da missão da MB.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.1, da página 59, essas atividades decorrem da Constituição (CRFB), Leis, Decretos, documentos nacionais e da missão da MB.</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Como o emprego do Poder Naval na 'diplomacia naval' pode influenciar outros Estados?</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Pode influenciar a opinião pública e os dirigentes, reforçar laços de amizade, garantir acordos e dissuadir ações desfavoráveis.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Pág. 59</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.2, da página 59, o Poder Naval é capaz de influenciar a opinião pública e os dirigentes, além de reforçar laços de amizade.</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>As ASSHOP contribuem para a segurança da navegação de que maneira?</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Auxiliam na fiscalização e reportam alterações fisiográficas, perigos e o estado dos auxílios à navegação.</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.4, da página 61, os navios contribuem para a segurança da navegação por auxiliarem a fiscalização e reportarem perigos.</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>A tarefa de prestar socorro à vida humana no mar se aplica somente a embarcações de bandeira brasileira?</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Não, aplica-se a todas que estiverem navegando no interior da região SAR atribuída ao Brasil.</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Pág. 61</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Nos termos do item 5.5, da página 61, a tarefa se aplica a todas as embarcações no interior da região SAR atribuída ao Brasil.</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>A operação de salvamento de material, como desencalhe e reflutuação, exige que tipo de meios?</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Exige navios especializados, sendo o rebocador o mais comum entre eles.</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Pág. 63</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.6, da página 63, atividades como desencalhe e reflutuação exigem navios especializados, como o rebocador.</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>De que forma a MB coopera com o desenvolvimento nacional na área de pesquisa científica?</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Conduzindo ou fomentando a pesquisa científica para possibilitar o desenvolvimento de novas tecnologias.</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Pág. 64</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Conforme o item 5.8, da página 64, a MB coopera conduzindo ou fomentando a pesquisa científica.</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Qual é a responsabilidade da Autoridade Marítima na fiscalização de navios, segundo a Lei do Óleo?</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Fiscalizar navios, plataformas e suas instalações de apoio, e as cargas de natureza nociva ou perigosa, autuando os infratores.</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Pág. 68</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Nos termos do artigo 27 da Lei 9.966, citado no item 5.12 da página 68, a AM é responsável por fiscalizar navios e plataformas.</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
